--- a/Capabilities.xlsx
+++ b/Capabilities.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D23CE1-9C64-46B6-AF94-90BBB110BA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14662B74-29D9-44AF-9E13-36BF60E3F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35180" yWindow="8950" windowWidth="22600" windowHeight="12020" activeTab="5" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="716" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
-    <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
-    <sheet name="HelpfulDocumentation" sheetId="2" r:id="rId2"/>
-    <sheet name="AddFeatures" sheetId="3" r:id="rId3"/>
-    <sheet name="UseCases" sheetId="4" r:id="rId4"/>
-    <sheet name="Monetization" sheetId="5" r:id="rId5"/>
-    <sheet name="TodaysNotes" sheetId="6" r:id="rId6"/>
+    <sheet name="DailyNotes" sheetId="6" r:id="rId1"/>
+    <sheet name="MVPFeatures" sheetId="1" r:id="rId2"/>
+    <sheet name="HelpfulDocumentation" sheetId="2" r:id="rId3"/>
+    <sheet name="AddFeatures" sheetId="3" r:id="rId4"/>
+    <sheet name="UseCases" sheetId="4" r:id="rId5"/>
+    <sheet name="Monetization" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -158,6 +158,39 @@
   </si>
   <si>
     <t>Try to add two documents to doc loader and retrieve answers from two</t>
+  </si>
+  <si>
+    <t>- Trying to get better answers by playing with vectorDB. Possible the DirectoryLoad method is overloading the LLM</t>
+  </si>
+  <si>
+    <t>-- LLM seems to be getting back better answers, but all dependent on highly specific prompt.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>-- Questions seem to be resulting in good answers.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>- Loaded 13 more NREL reports in H2 directory (100 MB of data). Will try to ask a variety of questions related to hydrogen.</t>
+  </si>
+  <si>
+    <t>-- Not able to answer specific technical potential questions. Might be because can't access raw data</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>-- Get input data up towards 1 GB</t>
   </si>
 </sst>
 </file>
@@ -202,16 +235,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -569,6 +674,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C1048576 F1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>$E$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47DD1B2-F515-4063-A283-1EBFB574D93C}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -691,7 +934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BADC2A-0533-4A25-AC3D-DC8353FFB003}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -712,7 +955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67949674-8283-46A5-8E57-0FA23CFAF458}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -737,7 +980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE19399-4494-48E4-9236-2FC54C1C696D}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -797,7 +1040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB856F-E16D-4194-BAE3-6CAA5BF179F2}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -849,29 +1092,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Capabilities.xlsx
+++ b/Capabilities.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14662B74-29D9-44AF-9E13-36BF60E3F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C91249-2868-4968-ADEA-910CDC9B2819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="716" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="759" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyNotes" sheetId="6" r:id="rId1"/>
-    <sheet name="MVPFeatures" sheetId="1" r:id="rId2"/>
-    <sheet name="HelpfulDocumentation" sheetId="2" r:id="rId3"/>
-    <sheet name="AddFeatures" sheetId="3" r:id="rId4"/>
-    <sheet name="UseCases" sheetId="4" r:id="rId5"/>
-    <sheet name="Monetization" sheetId="5" r:id="rId6"/>
+    <sheet name="Scratch" sheetId="7" r:id="rId2"/>
+    <sheet name="MVPFeatures" sheetId="1" r:id="rId3"/>
+    <sheet name="HelpfulDocumentation" sheetId="2" r:id="rId4"/>
+    <sheet name="AddFeatures" sheetId="3" r:id="rId5"/>
+    <sheet name="UseCases" sheetId="4" r:id="rId6"/>
+    <sheet name="Monetization" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -190,7 +191,13 @@
     <t>IN PROGRESS</t>
   </si>
   <si>
-    <t>-- Get input data up towards 1 GB</t>
+    <t>-- Get input data up towards 1 GB. Need to add other aspects of H2 like: materials, supply chain [added 3], chemistry, integrated systems [added 1]</t>
+  </si>
+  <si>
+    <t>- Need more prompts to enhance output. How will initial users be using this? Only way to find out is to create web interface to get more interaction.</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
   </si>
 </sst>
 </file>
@@ -235,17 +242,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -264,7 +285,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="5"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -279,41 +300,6 @@
         <b/>
         <i val="0"/>
         <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
       </font>
     </dxf>
   </dxfs>
@@ -675,135 +661,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.54296875" customWidth="1"/>
+    <col min="2" max="2" width="91.54296875" style="8" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>45100</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>45100</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>45100</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
+        <v>45100</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576 F1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$E$3</formula>
+  <conditionalFormatting sqref="F2:F4 C1:C1048576">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>$F$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>$E$2</formula>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>$E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -812,6 +830,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FF080-9AD9-4A26-A8C8-2A6C2F748CFF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47DD1B2-F515-4063-A283-1EBFB574D93C}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -934,7 +964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BADC2A-0533-4A25-AC3D-DC8353FFB003}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -955,7 +985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67949674-8283-46A5-8E57-0FA23CFAF458}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -980,7 +1010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE19399-4494-48E4-9236-2FC54C1C696D}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -1040,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB856F-E16D-4194-BAE3-6CAA5BF179F2}">
   <dimension ref="A1:A9"/>
   <sheetViews>
